--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/CAAggregated C-A  DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/CAAggregated C-A  DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
@@ -19,7 +19,7 @@
     <t>C/A</t>
   </si>
   <si>
-    <t>LF</t>
+    <t>FFR</t>
   </si>
   <si>
     <t>Source</t>
@@ -28,19 +28,19 @@
     <t>C/A Lag</t>
   </si>
   <si>
-    <t>LF Lag</t>
-  </si>
-  <si>
-    <t>0.153***</t>
-  </si>
-  <si>
-    <t>-0.096*</t>
-  </si>
-  <si>
-    <t>0.082</t>
-  </si>
-  <si>
-    <t>0.077</t>
+    <t>FFR Lag</t>
+  </si>
+  <si>
+    <t>-0.19**</t>
+  </si>
+  <si>
+    <t>5.468**</t>
+  </si>
+  <si>
+    <t>-0.007</t>
+  </si>
+  <si>
+    <t>0.245</t>
   </si>
 </sst>
 </file>
